--- a/biology/Zoologie/Brachypetersius/Brachypetersius.xlsx
+++ b/biology/Zoologie/Brachypetersius/Brachypetersius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachypetersius est un genre de poissons d'eau douce de la famille des Alestidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Brachypetersius se rencontrent en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Brachypetersius se rencontrent en Afrique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (13 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (13 décembre 2023) :
 Brachypetersius altus (Boulenger, 1899)
 Brachypetersius cadwaladeri (Fowler, 1930)
 Brachypetersius gabonensis Poll, 1967
@@ -578,9 +594,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Brachypetersius Hoedeman (d), 1956[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Brachypetersius Hoedeman (d), 1956.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Brachypetersius, qui se compose du grec ancien βραχύς, brakhús, « court » (allusion ni expliquée ni évidente), et du genre Petersius, reprend le nom invalidé que Hoedeman avait proposé en 1951 pour un sous-genre de Alestopetersius et pourrait faire référence à la petite taille de Brachypetersius altus (39–65 mm) comparativement à Alestopetersius hilgendorfi qui mesure 100 mm[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Brachypetersius, qui se compose du grec ancien βραχύς, brakhús, « court » (allusion ni expliquée ni évidente), et du genre Petersius, reprend le nom invalidé que Hoedeman avait proposé en 1951 pour un sous-genre de Alestopetersius et pourrait faire référence à la petite taille de Brachypetersius altus (39–65 mm) comparativement à Alestopetersius hilgendorfi qui mesure 100 mm.
 </t>
         </is>
       </c>
